--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jae-hoojos\codingprojects\pokemon-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE1AC62-6223-4E18-BAB5-E40E96E6C0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9498740C-B124-44F9-87BA-E825B73E39C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1155" windowWidth="20760" windowHeight="12735" activeTab="1" xr2:uid="{FAF77C5E-0CE3-4AD6-AECC-2189AEF0554C}"/>
+    <workbookView xWindow="3225" yWindow="1500" windowWidth="20760" windowHeight="12735" activeTab="1" xr2:uid="{FAF77C5E-0CE3-4AD6-AECC-2189AEF0554C}"/>
   </bookViews>
   <sheets>
     <sheet name="typeAdvantages" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
   <si>
     <t>Fire</t>
   </si>
@@ -197,6 +197,33 @@
   </si>
   <si>
     <t>Type1</t>
+  </si>
+  <si>
+    <t>Garchomp</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Crush Claw</t>
+  </si>
+  <si>
+    <t>High Jump Kick</t>
   </si>
 </sst>
 </file>
@@ -228,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -236,13 +263,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,581 +604,1164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C627DFAB-C4E9-487D-B832-D28DD410C56B}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.5</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0.5</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>0.5</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.5</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.5</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0.5</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2</v>
+      </c>
+      <c r="S14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:S19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF98FB98"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1142,22 +1769,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B4D989-D48E-4BD8-8DD4-C61A737D78E6}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1167,20 +1794,23 @@
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1208,8 +1838,11 @@
       <c r="I2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1237,8 +1870,11 @@
       <c r="I3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1261,7 +1897,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1307,7 +1943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1326,8 +1962,11 @@
       <c r="F7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1337,8 +1976,11 @@
       <c r="C8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1349,7 +1991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1358,6 +2000,17 @@
       </c>
       <c r="C10" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +2026,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +2072,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>90</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jae-hoojos\codingprojects\pokemon-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9498740C-B124-44F9-87BA-E825B73E39C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7B9D77-A2A5-43C4-AF7E-620CAB9447B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="1500" windowWidth="20760" windowHeight="12735" activeTab="1" xr2:uid="{FAF77C5E-0CE3-4AD6-AECC-2189AEF0554C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{FAF77C5E-0CE3-4AD6-AECC-2189AEF0554C}"/>
   </bookViews>
   <sheets>
     <sheet name="typeAdvantages" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>Fire</t>
   </si>
@@ -224,6 +224,33 @@
   </si>
   <si>
     <t>High Jump Kick</t>
+  </si>
+  <si>
+    <t>Knock Off</t>
+  </si>
+  <si>
+    <t>Ice Beam</t>
+  </si>
+  <si>
+    <t>Focus Blast</t>
+  </si>
+  <si>
+    <t>Waterfall</t>
+  </si>
+  <si>
+    <t>Ice Punch</t>
+  </si>
+  <si>
+    <t>Shadow Ball</t>
+  </si>
+  <si>
+    <t>Close Combat</t>
+  </si>
+  <si>
+    <t>Earthquake</t>
+  </si>
+  <si>
+    <t>Stone Edge</t>
   </si>
 </sst>
 </file>
@@ -308,9 +335,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +375,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -454,7 +481,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -596,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1772,7 +1799,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1807,7 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1979,6 +2006,15 @@
       <c r="D8" t="s">
         <v>61</v>
       </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1990,6 +2026,18 @@
       <c r="C9" t="s">
         <v>51</v>
       </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2001,6 +2049,18 @@
       <c r="C10" t="s">
         <v>49</v>
       </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2011,6 +2071,18 @@
       </c>
       <c r="C11" t="s">
         <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
